--- a/QA.xlsx
+++ b/QA.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chenhf\neusoft\大地保险\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DD36757-9847-4163-8AF4-DAFB0C9285A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0560CB9-65A5-42A9-B2AA-D11C6929EC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
-    <t>问题</t>
-  </si>
-  <si>
-    <t>答案</t>
-  </si>
-  <si>
-    <t>交强险保哪些</t>
-  </si>
-  <si>
     <t>您好，在中华人民共和国境内（不含中国港澳台地区），被保险人在使用被保险机动车过程中发生交通事故，致使受害人遭受人身伤亡或者财产损失，依法应当由被保险人承担的损害赔偿责任，保险人按照交强险合同的约定对每次事故在赔偿限额内负责赔偿。
 温馨提醒：
 交强险合同中的受害人不包括被保险机动车本车车上人员、被保险人。</t>
@@ -223,11 +214,23 @@
   <si>
     <t>您好，食品安全险由销售商家购买投保，外卖购买者是被保险人，投保理赔均在美团APP进行，请下载“美团”APP处理。</t>
   </si>
+  <si>
+    <t>交强险保哪些</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1175,10 +1178,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1188,258 +1193,258 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="207" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="69" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
